--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
@@ -15,9 +15,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制类型转换为short*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short *指针类型每次访问2个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后结果是00345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +52,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -53,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -70,6 +105,429 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475755</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="485775"/>
+          <a:ext cx="3961905" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65795</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>160965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4314825"/>
+          <a:ext cx="7038095" cy="7676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>284892</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>65874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="5486400"/>
+          <a:ext cx="6866667" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675623</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="13239750"/>
+          <a:ext cx="5219048" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427909</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="16497300"/>
+          <a:ext cx="5723809" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599534</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>37761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="16525875"/>
+          <a:ext cx="4323809" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304345</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>94634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="20373975"/>
+          <a:ext cx="3638095" cy="4923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>369696</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>170725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="22831425"/>
+          <a:ext cx="14228571" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>579881</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>142589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="20659725"/>
+          <a:ext cx="9152381" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618936</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>114252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="20307300"/>
+          <a:ext cx="1514286" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113751</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>132852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="29756100"/>
+          <a:ext cx="4390476" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +817,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E83:S150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="T175" sqref="T175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="13:19" x14ac:dyDescent="0.15">
+      <c r="M102" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="13:19" x14ac:dyDescent="0.15">
+      <c r="S107" s="1"/>
+    </row>
+    <row r="120" spans="13:14" x14ac:dyDescent="0.15">
+      <c r="N120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="13:14" x14ac:dyDescent="0.15">
+      <c r="M124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>最后结果是00345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到的是指针之间的元素个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针之间有关系运算，可以比较大小，比较的是地址编号的大小（高低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装为函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样返回也可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,6 +555,652 @@
         <a:xfrm>
           <a:off x="1209675" y="29756100"/>
           <a:ext cx="4390476" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570982</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>114017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="34366200"/>
+          <a:ext cx="4142857" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159690</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>169722</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>103793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7017690" y="37699951"/>
+          <a:ext cx="11668632" cy="6637942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>551770</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>170971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13630275" y="44519850"/>
+          <a:ext cx="5438095" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379325</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>47142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="44529375"/>
+          <a:ext cx="13400000" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266201</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>56490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="38500050"/>
+          <a:ext cx="3990476" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142217</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>123524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="49834800"/>
+          <a:ext cx="5266667" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608994</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>123406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="49234725"/>
+          <a:ext cx="4847619" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485315</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>161579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="54483000"/>
+          <a:ext cx="3676190" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47157</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>85131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="53454300"/>
+          <a:ext cx="3742857" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8917</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>85404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="59921775"/>
+          <a:ext cx="4866667" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285194</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>8996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="59388375"/>
+          <a:ext cx="4447619" cy="4228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218312</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>66334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="65236725"/>
+          <a:ext cx="6104762" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380476</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>122914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="68275200"/>
+          <a:ext cx="4190476" cy="7285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218521</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>27665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="68189475"/>
+          <a:ext cx="4428571" cy="7276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>656723</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>46545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13782675" y="67532250"/>
+          <a:ext cx="4019048" cy="8638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>361234</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>142373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17954625" y="70018275"/>
+          <a:ext cx="5723809" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266274</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>104112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="77095350"/>
+          <a:ext cx="3409524" cy="5304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E83:S150"/>
+  <dimension ref="E83:AD434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="T175" sqref="T175"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="X457" sqref="X457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,6 +1533,54 @@
     <row r="150" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E150" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="L206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="10:27" x14ac:dyDescent="0.15">
+      <c r="J406" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="10:27" x14ac:dyDescent="0.15">
+      <c r="T407" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="30:30" x14ac:dyDescent="0.15">
+      <c r="AD434" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>这样返回也可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu是变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,34 +1181,110 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>449</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237699</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>46962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="78924150"/>
+          <a:ext cx="3409524" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>293256</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>65539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="77562075"/>
+          <a:ext cx="16152381" cy="9085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266274</xdr:colOff>
-      <xdr:row>480</xdr:row>
-      <xdr:rowOff>104112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1657350" y="77095350"/>
-          <a:ext cx="3409524" cy="5304762"/>
+      <xdr:colOff>370919</xdr:colOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>123234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="87639525"/>
+          <a:ext cx="4447619" cy="4723809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E83:AD434"/>
+  <dimension ref="E83:AD537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="X457" sqref="X457"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="Q520" sqref="Q520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,6 +1667,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="528" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I528" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I537" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_15 P90 调试(下).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,7 +78,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stu是变量</t>
+    <t>stu是变量名（对象名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.的操作级比解引用高 p.a会先结合 p是个指针，不能用.操作符，应该用-&gt;（像c选项一样）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于指向结构体变量大a的指针p  用-&gt;找到里面的小元素a，没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于结构体变量大a  用.找到里面的小元素a，没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指针p解引用，变为了结构体变量大a   再用.找到里面的小元素a，没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>students是数组名，指向数组首元素地址“zhang”, +1跳过一个元素之后指向“wang”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,6 +1325,462 @@
         <a:xfrm>
           <a:off x="723900" y="87639525"/>
           <a:ext cx="4447619" cy="4723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>542</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371059</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>123462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="93059250"/>
+          <a:ext cx="3323809" cy="2904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523393</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>113948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="96393000"/>
+          <a:ext cx="3857143" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56829</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>133009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="99593400"/>
+          <a:ext cx="2571429" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218273</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>142558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="99621975"/>
+          <a:ext cx="6419048" cy="2533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>532883</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>123339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="104251125"/>
+          <a:ext cx="4133333" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>631</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523630</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>123649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="108270675"/>
+          <a:ext cx="1961905" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285138</xdr:colOff>
+      <xdr:row>607</xdr:row>
+      <xdr:rowOff>123742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="103527225"/>
+          <a:ext cx="4895238" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>647</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552118</xdr:colOff>
+      <xdr:row>654</xdr:row>
+      <xdr:rowOff>85583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="111080550"/>
+          <a:ext cx="2657143" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>656</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342690</xdr:colOff>
+      <xdr:row>664</xdr:row>
+      <xdr:rowOff>161737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="112499775"/>
+          <a:ext cx="1676190" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>655</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437412</xdr:colOff>
+      <xdr:row>687</xdr:row>
+      <xdr:rowOff>104088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="112395000"/>
+          <a:ext cx="5904762" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>691</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570774</xdr:colOff>
+      <xdr:row>705</xdr:row>
+      <xdr:rowOff>113998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="118567200"/>
+          <a:ext cx="5809524" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367288</xdr:colOff>
+      <xdr:row>706</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465137</xdr:colOff>
+      <xdr:row>819</xdr:row>
+      <xdr:rowOff>25966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053088" y="121119900"/>
+          <a:ext cx="11756449" cy="19323616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E83:AD537"/>
+  <dimension ref="E83:AD683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="Q520" sqref="Q520"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="U801" sqref="U801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1675,6 +2171,54 @@
     <row r="537" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I537" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I550" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I568" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="590" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H590" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="633" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H633" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="635" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H635" t="s">
+        <v>19</v>
+      </c>
+      <c r="J635" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="637" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H637" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="639" spans="8:10" x14ac:dyDescent="0.15">
+      <c r="H639" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="661" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N661" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="683" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K683" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
